--- a/doc/excel-killer/1/ada.xlsx
+++ b/doc/excel-killer/1/ada.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proj\CocosCreatorPlugins\doc\excel-killer\1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E27510C-F135-47BB-A2CB-4007ABFDC70A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20820" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="4" r:id="rId1"/>
+    <sheet name="randName" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +34,9 @@
     <t>名</t>
   </si>
   <si>
+    <t>cs</t>
+  </si>
+  <si>
     <t>赵</t>
   </si>
   <si>
@@ -182,34 +179,19 @@
   </si>
   <si>
     <t>明达</t>
-  </si>
-  <si>
-    <t>cs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,29 +206,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -254,9 +552,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -267,29 +807,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="FFF6D832"/>
+      <color rgb="00F6D832"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -576,22 +1160,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +1187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -613,284 +1198,284 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:3">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:3">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:3">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:3">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:3">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:3">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:3">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:3">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:3">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:3">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:3">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:3">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:3">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:3">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:3">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:3">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:3">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/excel-killer/1/ada.xlsx
+++ b/doc/excel-killer/1/ada.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20820" windowHeight="11385"/>
+    <workbookView windowWidth="21000" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="randName" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>cs</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
   <si>
     <t>赵</t>
@@ -186,12 +192,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,10 +219,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,28 +275,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +341,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,68 +352,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,18 +372,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,13 +456,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,13 +504,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,127 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +563,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,6 +629,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,39 +649,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,152 +668,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,7 +823,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,12 +1180,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1209,268 +1223,279 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:3">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:3">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:3">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:3">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:3">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:3">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:3">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:3">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:3">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:3">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:3">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:3">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:3">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:3">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:3">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:3">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:3">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:3">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:3">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:3">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:3">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:3">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:3">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
